--- a/ucd.xlsx
+++ b/ucd.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>WS</t>
   </si>
@@ -427,7 +427,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col customWidth="1" min="1" max="2" width="12.63"/>
+    <col customWidth="1" min="3" max="3" width="18.88"/>
+    <col customWidth="1" min="4" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1146,120 +1148,113 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2" t="s">
-        <v>42</v>
+      <c r="A48" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>8.0</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>22</v>
+        <v>9.0</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>
@@ -2219,9 +2214,8 @@
     <row r="1014" ht="15.75" customHeight="1"/>
     <row r="1015" ht="15.75" customHeight="1"/>
     <row r="1016" ht="15.75" customHeight="1"/>
-    <row r="1017" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2229,17 +2223,16 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
